--- a/lab7/results/results.xlsx
+++ b/lab7/results/results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>количество процессоров</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>эффективность</t>
+  </si>
+  <si>
+    <t>17x17</t>
   </si>
 </sst>
 </file>
@@ -985,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -997,9 +1000,12 @@
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="33.75" customHeight="1">
+    <row r="1" spans="1:7" ht="33.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1008,8 +1014,13 @@
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1">
+    <row r="2" spans="1:7" ht="30" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1022,8 +1033,17 @@
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1038,8 +1058,9 @@
         <f>C3/A3</f>
         <v>1</v>
       </c>
+      <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1054,8 +1075,9 @@
         <f t="shared" ref="D4:D12" si="1">C4/A4</f>
         <v>0.67479288955497274</v>
       </c>
+      <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>5</v>
       </c>
@@ -1070,8 +1092,9 @@
         <f t="shared" si="1"/>
         <v>0.80944818976279653</v>
       </c>
+      <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>7</v>
       </c>
@@ -1086,8 +1109,9 @@
         <f t="shared" si="1"/>
         <v>0.86638979309312691</v>
       </c>
+      <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>10</v>
       </c>
@@ -1102,8 +1126,9 @@
         <f t="shared" si="1"/>
         <v>0.90807843137254918</v>
       </c>
+      <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>13</v>
       </c>
@@ -1118,8 +1143,9 @@
         <f t="shared" si="1"/>
         <v>0.93035482648973167</v>
       </c>
+      <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>15</v>
       </c>
@@ -1134,8 +1160,9 @@
         <f t="shared" si="1"/>
         <v>0.94048157818392797</v>
       </c>
+      <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>17</v>
       </c>
@@ -1150,8 +1177,9 @@
         <f t="shared" si="1"/>
         <v>0.94704246418472027</v>
       </c>
+      <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>20</v>
       </c>
@@ -1166,8 +1194,9 @@
         <f t="shared" si="1"/>
         <v>0.95381899493939049</v>
       </c>
+      <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>23</v>
       </c>
@@ -1182,10 +1211,12 @@
         <f t="shared" si="1"/>
         <v>0.95871014295600121</v>
       </c>
+      <c r="E12" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
